--- a/HARDWARE/BOM.xlsx
+++ b/HARDWARE/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chcay\Documents\UdeS_JDG\GEH_OPEN_SOURCE\HARDWARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LaptopMSIBacc\UdeS_JDG\GEH_GIT\HARDWARE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CE230E-F9B0-476F-934C-9270B55D238B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAFB3F3-2F58-4506-B949-C45E9C351A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Coût</t>
   </si>
   <si>
-    <t>Qté</t>
-  </si>
-  <si>
     <t>Coût total</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>https://www.amazon.ca/-/fr/gp/product/B0BTYF2MMD/ref=ox_sc_act_title_4?smid=AKD305N0T0Z49&amp;psc=1</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/-/fr/gp/product/B0BLY144T3/ref=ox_sc_act_title_3?smid=A23RKH5PAW1V4I&amp;psc=1</t>
-  </si>
-  <si>
     <t>https://www.amazon.ca/-/fr/gp/product/B07CTHCG5T/ref=ox_sc_act_title_2?smid=A3KY66I36TSYAT&amp;psc=1</t>
   </si>
   <si>
@@ -89,15 +83,9 @@
     <t>Vis M3x16mm</t>
   </si>
   <si>
-    <t>Vis M3x25mm</t>
-  </si>
-  <si>
     <t>Qté Amazon</t>
   </si>
   <si>
-    <t>Fils boutons 1m</t>
-  </si>
-  <si>
     <t>Fils micro USB 2m</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>https://www.amazon.ca/-/fr/t%C3%AAte-cylindrique-alliage-dacier-qualit%C3%A9/dp/B0BW891786/ref=sr_1_7?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=38T5RBF07WDZ1&amp;keywords=m3%2B16mm&amp;qid=1699484725&amp;sprefix=m3%2B16m%2Caps%2C113&amp;sr=8-7&amp;th=1</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/-/fr/t%C3%AAte-cylindrique-alliage-dacier-qualit%C3%A9/dp/B0BW8B9KJR/ref=sr_1_7?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=38T5RBF07WDZ1&amp;keywords=m3%2B16mm&amp;qid=1699484725&amp;sprefix=m3%2B16m%2Caps%2C113&amp;sr=8-7&amp;th=1</t>
-  </si>
-  <si>
     <t>ESP32*</t>
   </si>
   <si>
@@ -120,6 +105,30 @@
   </si>
   <si>
     <t>*Même modèles nécessaires</t>
+  </si>
+  <si>
+    <t>Coût/unité</t>
+  </si>
+  <si>
+    <t>Qté lot</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/gp/product/B06XH47DC2/ref=ewc_pr_img_8?smid=A3GIOIXY0M9FL0&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Fils boutons (m)</t>
+  </si>
+  <si>
+    <t>Qté/unité</t>
+  </si>
+  <si>
+    <t>Qté d'unités</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/gp/product/B0CKSYSSCZ/ref=ewc_pr_img_7?smid=A1ZMZWM9Z42FJB&amp;psc=1</t>
+  </si>
+  <si>
+    <t>STM32*</t>
   </si>
 </sst>
 </file>
@@ -169,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -193,13 +202,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -214,10 +292,165 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -228,110 +461,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -340,27 +470,36 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -677,216 +816,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="5" width="11" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="17">
         <v>13.99</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="18">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="18">
+        <v>24</v>
+      </c>
+      <c r="F5" s="19">
+        <f>IFERROR(C5/(E5/D5),0)</f>
+        <v>4.6633333333333331</v>
+      </c>
+      <c r="G5" s="25">
+        <f>_xlfn.CEILING.MATH($C$2*D5/E5)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="6">
-        <f>C5*E5</f>
+      <c r="H5" s="28">
+        <f>C5*G5</f>
         <v>13.99</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>7</v>
+      <c r="I5" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>13.99</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F15" si="0">IFERROR(C6/(E6/D6),0)</f>
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <f>_xlfn.CEILING.MATH($C$2*D6/E6)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f>C6*G6</f>
+        <v>13.99</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
         <v>22.16</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" ref="F6:F15" si="0">C6*E6</f>
-        <v>22.16</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10.7</v>
-      </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G15" si="1">_xlfn.CEILING.MATH($C$2*D7/E7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <f>C7*G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
         <v>10.7</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12.99</v>
-      </c>
       <c r="D8" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
+        <v>3.5666666666666664</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="24">
+        <f>C8*G8</f>
+        <v>10.7</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2">
         <v>12.99</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>9</v>
+      <c r="D9" s="1">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>10.391999999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="24">
+        <f>C9*G9</f>
+        <v>12.99</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
         <v>31.99</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <f>C9*E9</f>
-        <v>31.99</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10.59</v>
-      </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <f>C10*E10</f>
+        <f t="shared" si="0"/>
+        <v>9.5969999999999995</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <f>C10*G10</f>
+        <v>31.99</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
         <v>10.59</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12.99</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>12.99</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="24">
+        <f>C11*G11</f>
+        <v>10.59</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>17</v>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="3">
         <v>12.99</v>
       </c>
       <c r="D12" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="24">
+        <f>C12*G12</f>
         <v>12.99</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>24</v>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>16</v>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>14.18</v>
@@ -895,108 +1110,115 @@
         <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
+        <v>2.2688000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="24">
+        <f>C13*G13</f>
         <v>14.18</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>23</v>
+      <c r="I13" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>22</v>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>39.75</v>
+        <v>16.62</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>39.75</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>11</v>
+        <v>3.3240000000000003</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="24">
+        <f>C14*G14</f>
+        <v>16.62</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14">
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
         <v>18.920000000000002</v>
       </c>
-      <c r="D15" s="15">
-        <v>8</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
+        <v>1.8920000000000001</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F15" s="16">
-        <f t="shared" si="0"/>
+      <c r="H15" s="13">
+        <f>C15*G15</f>
         <v>18.920000000000002</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>12</v>
+      <c r="I15" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="18">
+    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="15">
         <f>SUM(F5:F15)</f>
-        <v>201.25</v>
+        <v>45.720399999999998</v>
+      </c>
+      <c r="H16" s="15">
+        <f>SUM(H5:H15)</f>
+        <v>156.95999999999998</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{009A805B-9E46-4027-AE6E-25CA48983880}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{CA1B76F0-FDE7-4ADB-840E-D9A83BFBF03D}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{91AF9E09-1F80-4F48-BAAE-85A3C9229FA8}"/>
-    <hyperlink ref="G8" r:id="rId4" xr:uid="{CE05C6D1-034F-4750-AA26-D156F6B2A184}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{0C325C1F-2F5C-42F0-827C-8F38E1ACFADB}"/>
-    <hyperlink ref="G15" r:id="rId6" xr:uid="{C7796D18-745F-4FCA-ACF3-93EEB8E3C4CD}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{99A84A29-1BF8-4159-ADD3-A09CD8802E1A}"/>
-    <hyperlink ref="G14" r:id="rId8" xr:uid="{9A270660-BE09-4E48-B26D-EBBCB6969017}"/>
-    <hyperlink ref="G13" r:id="rId9" display="https://www.amazon.ca/-/fr/%C3%A9crous-hexagonaux-auto-bloquants-inoxydable-ins%C3%A9r%C3%A9s/dp/B075ZZW7VL/ref=sr_1_9?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1YFGT3CFKJCJD&amp;keywords=m3+lock+nuts&amp;qid=1699484761&amp;sprefix=m3+lock+nuts%2Caps%2C91&amp;sr=8-9" xr:uid="{C7CAF3DF-94EA-4168-8F04-A1281A9F0EB1}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{6DCF4432-1880-4DCF-916E-9A8FFA20E78B}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{55D2E82C-CD1D-48DF-9780-37626FD56CF7}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{009A805B-9E46-4027-AE6E-25CA48983880}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{CA1B76F0-FDE7-4ADB-840E-D9A83BFBF03D}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{91AF9E09-1F80-4F48-BAAE-85A3C9229FA8}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{CE05C6D1-034F-4750-AA26-D156F6B2A184}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{0C325C1F-2F5C-42F0-827C-8F38E1ACFADB}"/>
+    <hyperlink ref="I15" r:id="rId6" xr:uid="{C7796D18-745F-4FCA-ACF3-93EEB8E3C4CD}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{99A84A29-1BF8-4159-ADD3-A09CD8802E1A}"/>
+    <hyperlink ref="I13" r:id="rId8" display="https://www.amazon.ca/-/fr/%C3%A9crous-hexagonaux-auto-bloquants-inoxydable-ins%C3%A9r%C3%A9s/dp/B075ZZW7VL/ref=sr_1_9?__mk_fr_CA=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1YFGT3CFKJCJD&amp;keywords=m3+lock+nuts&amp;qid=1699484761&amp;sprefix=m3+lock+nuts%2Caps%2C91&amp;sr=8-9" xr:uid="{C7CAF3DF-94EA-4168-8F04-A1281A9F0EB1}"/>
+    <hyperlink ref="I12" r:id="rId9" xr:uid="{6DCF4432-1880-4DCF-916E-9A8FFA20E78B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e449c62-5608-49cb-a1c8-ae611f6d3a75">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D964A4079FA3C4D9775562C88ED4470" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="837e127eace69215b4d5eb49d5e5333f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e449c62-5608-49cb-a1c8-ae611f6d3a75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da885a08a96fbf731686f0fc7a9a229b" ns2:_="">
     <xsd:import namespace="0e449c62-5608-49cb-a1c8-ae611f6d3a75"/>
@@ -1162,10 +1384,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0e449c62-5608-49cb-a1c8-ae611f6d3a75">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF84E3F8-7A22-45A5-BECA-C6BBBF3B4771}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E33D552-609E-4E30-9AB8-CEDBB5F835AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e449c62-5608-49cb-a1c8-ae611f6d3a75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1187,19 +1438,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E33D552-609E-4E30-9AB8-CEDBB5F835AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF84E3F8-7A22-45A5-BECA-C6BBBF3B4771}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0e449c62-5608-49cb-a1c8-ae611f6d3a75"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>